--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3705646.473529223</v>
+        <v>3800316.937312062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256412</v>
+        <v>6239134.533256418</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>148.3681250208874</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>26.11105845930199</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>152.3925105866799</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.05710418506243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>89.1128014067713</v>
       </c>
       <c r="E5" t="n">
-        <v>353.9487446662073</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773036</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>90.99166070001803</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>43.86617416758069</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>67.72038753189328</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>404.3795358314625</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>135.1157241044942</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.30846669433845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.0021958577179</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>118.9315910443458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040302</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.69845554285722</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1819,19 +1821,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>191.3690341502039</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
         <v>190.5400452173542</v>
@@ -2056,13 +2058,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>226.122411263361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>139.2596927345973</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040302</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956055</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>202.6911166937279</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>193.6120669283319</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>140.8753941572625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>162.4621744295023</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040302</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>27.7564829696682</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>10.34790790337662</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T29" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>238.0786347638701</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>194.0366542787715</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>100.8535500263048</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>119.740140031905</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.760719376035417</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040302</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.435299014555</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803237</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>162.4018459780626</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>32.64252480144152</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T41" t="n">
-        <v>204.3497241367026</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
         <v>251.0030623803221</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>9.804597865736486</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.2109779055437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169287</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040307</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>34.34733499953076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>56.56590097035596</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4325,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W2" t="n">
-        <v>1812.286255290752</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785273</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>411.2797076961342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>411.2797076961342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
         <v>99.59950625323012</v>
@@ -4486,7 +4488,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="C5" t="n">
-        <v>2079.343073798764</v>
+        <v>550.6130699431317</v>
       </c>
       <c r="D5" t="n">
-        <v>1721.077375192013</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="6">
@@ -4641,52 +4643,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.4025473335336</v>
+        <v>507.336405062904</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>338.4002221349971</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
         <v>246.4894537511405</v>
@@ -4723,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>683.8197173704941</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>683.8197173704941</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>683.8197173704941</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>394.4025473335336</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>394.4025473335336</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.4025473335336</v>
+        <v>507.336405062904</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634718</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.384514694306</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>862.1188160875556</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="E8" t="n">
-        <v>476.3305634893114</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036444</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674651</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674651</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.946871698839</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,52 +4883,52 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036444</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>591.6484548079552</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644251</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5039,25 +5041,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>911.1416242268238</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L11" t="n">
-        <v>1760.251489861816</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M11" t="n">
-        <v>2721.656366809405</v>
+        <v>2078.491070888233</v>
       </c>
       <c r="N11" t="n">
-        <v>3251.012327070181</v>
+        <v>3040.820486316874</v>
       </c>
       <c r="O11" t="n">
-        <v>4114.52506777933</v>
+        <v>3904.333227026024</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q11" t="n">
         <v>4733.000021926293</v>
@@ -5072,19 +5074,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.0456237078131</v>
+        <v>856.6829100224757</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1094407799062</v>
+        <v>687.7467270945688</v>
       </c>
       <c r="D13" t="n">
-        <v>557.9928013675705</v>
+        <v>537.630087682233</v>
       </c>
       <c r="E13" t="n">
-        <v>410.0797077851773</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F13" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5227,22 +5229,22 @@
         <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U13" t="n">
-        <v>1406.816559682884</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="V13" t="n">
-        <v>1286.68363943607</v>
+        <v>1374.089630957454</v>
       </c>
       <c r="W13" t="n">
-        <v>1286.68363943607</v>
+        <v>1084.672460920493</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.694088538053</v>
+        <v>856.6829100224757</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.694088538053</v>
+        <v>856.6829100224757</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C14" t="n">
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1446.817951496196</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2408.222828443784</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
-        <v>3040.820486316874</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O14" t="n">
-        <v>3904.333227026024</v>
+        <v>3844.382738721612</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
         <v>4733.000021926293</v>
@@ -5309,19 +5311,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5360,7 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L15" t="n">
         <v>843.4975491433823</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>483.8009708224121</v>
+        <v>510.047886738274</v>
       </c>
       <c r="C16" t="n">
-        <v>483.8009708224121</v>
+        <v>510.047886738274</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8009708224121</v>
+        <v>510.047886738274</v>
       </c>
       <c r="E16" t="n">
-        <v>335.887877240019</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="F16" t="n">
-        <v>263.4651948734965</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5458,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.551093895499</v>
+        <v>1213.514504985708</v>
       </c>
       <c r="V16" t="n">
-        <v>954.8666056896124</v>
+        <v>958.8300167798214</v>
       </c>
       <c r="W16" t="n">
-        <v>665.4494356526518</v>
+        <v>958.8300167798214</v>
       </c>
       <c r="X16" t="n">
-        <v>665.4494356526518</v>
+        <v>730.8404658818041</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.4494356526518</v>
+        <v>510.047886738274</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
@@ -5522,19 +5524,19 @@
         <v>1767.721909941649</v>
       </c>
       <c r="M17" t="n">
-        <v>2721.656366809405</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N17" t="n">
-        <v>3251.012327070181</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5595,19 +5597,19 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.71766921524075</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C19" t="n">
-        <v>95.71766921524075</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E19" t="n">
         <v>95.71766921524075</v>
@@ -5695,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.249922329876</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.565434123989</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="W19" t="n">
-        <v>726.1482640870279</v>
+        <v>1011.465715179424</v>
       </c>
       <c r="X19" t="n">
-        <v>498.1587131890105</v>
+        <v>783.4761642814066</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.3661340454805</v>
+        <v>562.6835851378764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993266</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036595</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155741</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
@@ -5759,19 +5761,19 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>1963.204430285879</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>2925.53384571452</v>
       </c>
       <c r="O20" t="n">
-        <v>4049.465812105077</v>
+        <v>3789.046586423669</v>
       </c>
       <c r="P20" t="n">
-        <v>4430.198854229707</v>
+        <v>4488.360349638067</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5783,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C21" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D21" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H21" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I21" t="n">
-        <v>95.71766921524075</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111811</v>
+        <v>2686.527881593638</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433823</v>
+        <v>3041.882421225839</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075618</v>
+        <v>3475.921276158075</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>3935.856492973193</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439725</v>
+        <v>4334.387565522181</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037006</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q21" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R21" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S21" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T21" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U21" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V21" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W21" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X21" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y21" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3995.409980277474</v>
+        <v>3531.946190855493</v>
       </c>
       <c r="C22" t="n">
-        <v>3826.473797349567</v>
+        <v>3531.946190855493</v>
       </c>
       <c r="D22" t="n">
-        <v>3676.357157937231</v>
+        <v>3381.829551443157</v>
       </c>
       <c r="E22" t="n">
-        <v>3528.444064354838</v>
+        <v>3381.829551443157</v>
       </c>
       <c r="F22" t="n">
-        <v>3381.554116856928</v>
+        <v>3234.939603945247</v>
       </c>
       <c r="G22" t="n">
-        <v>3213.806591198672</v>
+        <v>3067.192078286991</v>
       </c>
       <c r="H22" t="n">
         <v>3067.192078286991</v>
@@ -5932,28 +5934,28 @@
         <v>4785.883460762037</v>
       </c>
       <c r="R22" t="n">
-        <v>4785.883460762037</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S22" t="n">
-        <v>4593.418768623295</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="T22" t="n">
-        <v>4593.418768623295</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="U22" t="n">
-        <v>4593.418768623295</v>
+        <v>4296.840428241871</v>
       </c>
       <c r="V22" t="n">
-        <v>4593.418768623295</v>
+        <v>4042.155940035983</v>
       </c>
       <c r="W22" t="n">
-        <v>4593.418768623295</v>
+        <v>3752.738769999023</v>
       </c>
       <c r="X22" t="n">
-        <v>4397.851024251243</v>
+        <v>3752.738769999023</v>
       </c>
       <c r="Y22" t="n">
-        <v>4177.058445107713</v>
+        <v>3531.946190855493</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5987,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>597.708085861203</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L23" t="n">
-        <v>1385.689493054302</v>
+        <v>1429.019117716511</v>
       </c>
       <c r="M23" t="n">
-        <v>2347.09437000189</v>
+        <v>2390.423994664099</v>
       </c>
       <c r="N23" t="n">
-        <v>3309.42378543053</v>
+        <v>3352.75341009274</v>
       </c>
       <c r="O23" t="n">
-        <v>3795.944346689562</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C24" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D24" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H24" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I24" t="n">
-        <v>95.71766921524075</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>2612.671804624322</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>3000.201167589512</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>3434.240022521748</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>3894.175239336866</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439725</v>
+        <v>4292.706311885854</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037006</v>
+        <v>4593.229566483135</v>
       </c>
       <c r="Q24" t="n">
-        <v>2587.498588679581</v>
+        <v>4744.202207125711</v>
       </c>
       <c r="R24" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S24" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T24" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U24" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V24" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W24" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X24" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y24" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.9291407342627</v>
+        <v>953.668986560201</v>
       </c>
       <c r="C25" t="n">
-        <v>385.9291407342627</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D25" t="n">
-        <v>385.9291407342627</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E25" t="n">
-        <v>238.0160471518695</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6172,25 +6174,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.774119163341</v>
+        <v>1657.135604807635</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.774119163341</v>
+        <v>1657.135604807635</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.668814705367</v>
+        <v>1657.135604807635</v>
       </c>
       <c r="V25" t="n">
-        <v>1084.98432649948</v>
+        <v>1402.451116601748</v>
       </c>
       <c r="W25" t="n">
-        <v>795.5671564625197</v>
+        <v>1402.451116601748</v>
       </c>
       <c r="X25" t="n">
-        <v>567.5776055645024</v>
+        <v>1174.461565703731</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.5776055645024</v>
+        <v>953.668986560201</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C26" t="n">
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>280.8839136038031</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>923.1865672168638</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1772.296432851856</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.68291164154</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.012327070181</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q26" t="n">
         <v>4733.000021926293</v>
@@ -6257,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.0847382227873</v>
+        <v>3599.733795084843</v>
       </c>
       <c r="C28" t="n">
-        <v>538.0847382227873</v>
+        <v>3430.797612156936</v>
       </c>
       <c r="D28" t="n">
-        <v>538.0847382227873</v>
+        <v>3430.797612156936</v>
       </c>
       <c r="E28" t="n">
-        <v>390.1716446403942</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="F28" t="n">
-        <v>390.1716446403942</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="G28" t="n">
-        <v>222.4241189821385</v>
+        <v>3115.136992916287</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="I28" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O28" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S28" t="n">
-        <v>1821.238811302082</v>
+        <v>4775.431028536404</v>
       </c>
       <c r="T28" t="n">
-        <v>1599.281251821626</v>
+        <v>4553.473469055948</v>
       </c>
       <c r="U28" t="n">
-        <v>1310.175947363652</v>
+        <v>4553.473469055948</v>
       </c>
       <c r="V28" t="n">
-        <v>1055.491459157765</v>
+        <v>4298.788980850061</v>
       </c>
       <c r="W28" t="n">
-        <v>766.0742891208047</v>
+        <v>4009.371810813101</v>
       </c>
       <c r="X28" t="n">
-        <v>538.0847382227873</v>
+        <v>3781.382259915083</v>
       </c>
       <c r="Y28" t="n">
-        <v>538.0847382227873</v>
+        <v>3781.382259915083</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6448,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6461,22 +6463,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443784</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P29" t="n">
         <v>4495.258109903959</v>
@@ -6540,7 +6542,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
         <v>488.1430095111811</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.5669457255408</v>
+        <v>825.8740171640912</v>
       </c>
       <c r="C31" t="n">
-        <v>243.6307627976338</v>
+        <v>656.9378342361844</v>
       </c>
       <c r="D31" t="n">
-        <v>243.6307627976338</v>
+        <v>656.9378342361844</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6643,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1821.238811302082</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T31" t="n">
-        <v>1599.281251821626</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U31" t="n">
-        <v>1310.175947363652</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V31" t="n">
-        <v>1055.491459157765</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="W31" t="n">
-        <v>815.0079896993107</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="X31" t="n">
-        <v>815.0079896993107</v>
+        <v>1203.519102477939</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.2154105557805</v>
+        <v>1007.522481994331</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6701,22 +6703,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.52506777933</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.6673056111044</v>
+        <v>540.3619151216504</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6673056111044</v>
+        <v>540.3619151216504</v>
       </c>
       <c r="D34" t="n">
-        <v>216.6673056111044</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="E34" t="n">
-        <v>216.6673056111044</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F34" t="n">
-        <v>216.6673056111044</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G34" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6880,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.551093895499</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V34" t="n">
-        <v>954.8666056896124</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W34" t="n">
-        <v>665.4494356526518</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="X34" t="n">
-        <v>437.4598847546345</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.6673056111044</v>
+        <v>642.2341878754937</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6943,22 @@
         <v>597.708085861203</v>
       </c>
       <c r="L35" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.68291164154</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.012327070181</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>3513.418439729516</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>3513.418439729516</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>3508.609632278975</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>3360.696538696582</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>3213.806591198672</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>3213.806591198672</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>3067.192078286991</v>
       </c>
       <c r="I37" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O37" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.774119163341</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="T37" t="n">
-        <v>1406.816559682884</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="U37" t="n">
-        <v>1117.711255224911</v>
+        <v>4212.473625494734</v>
       </c>
       <c r="V37" t="n">
-        <v>863.0267670190239</v>
+        <v>4212.473625494734</v>
       </c>
       <c r="W37" t="n">
-        <v>573.6095969820633</v>
+        <v>3923.056455457773</v>
       </c>
       <c r="X37" t="n">
-        <v>345.620046084046</v>
+        <v>3695.066904559756</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.8274669405158</v>
+        <v>3695.066904559756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993266</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036592</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
         <v>276.3093906935954</v>
@@ -7181,43 +7183,43 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443784</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872424</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.525067779332</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903961</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926295</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762039</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666528</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902184</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053374</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709803</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439689</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178609</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
         <v>184.4590143936093</v>
@@ -7266,7 +7268,7 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
         <v>2436.525948037006</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>953.668986560201</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="C40" t="n">
-        <v>953.668986560201</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D40" t="n">
-        <v>803.5523471478652</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E40" t="n">
-        <v>655.6392535654721</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F40" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976252</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
         <v>336.6421130738839</v>
@@ -7366,16 +7368,16 @@
         <v>1117.711255224911</v>
       </c>
       <c r="V40" t="n">
-        <v>1117.711255224911</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W40" t="n">
-        <v>953.668986560201</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X40" t="n">
-        <v>953.668986560201</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="Y40" t="n">
-        <v>953.668986560201</v>
+        <v>540.6373497078799</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7396,19 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
         <v>276.3093906935954</v>
@@ -7421,22 +7423,22 @@
         <v>2284.108388731333</v>
       </c>
       <c r="N41" t="n">
-        <v>3246.437804159973</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O41" t="n">
-        <v>4109.950544869122</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903961</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926295</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
-        <v>4785.883460762039</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S41" t="n">
-        <v>4673.322552666528</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T41" t="n">
         <v>4466.908689902182</v>
@@ -7445,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C42" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D42" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H42" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I42" t="n">
-        <v>95.71766921524079</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111811</v>
+        <v>2686.527881593638</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433823</v>
+        <v>3041.882421225839</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075618</v>
+        <v>3475.921276158075</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>3935.856492973193</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439725</v>
+        <v>4334.387565522181</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q42" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R42" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S42" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T42" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U42" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y42" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.4651948734966</v>
+        <v>670.2336715435928</v>
       </c>
       <c r="C43" t="n">
-        <v>263.4651948734966</v>
+        <v>501.2974886156859</v>
       </c>
       <c r="D43" t="n">
-        <v>263.4651948734966</v>
+        <v>351.1808492033501</v>
       </c>
       <c r="E43" t="n">
-        <v>263.4651948734966</v>
+        <v>351.1808492033501</v>
       </c>
       <c r="F43" t="n">
-        <v>263.4651948734966</v>
+        <v>204.2909017054398</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524079</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524079</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
         <v>336.6421130738839</v>
@@ -7591,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V43" t="n">
-        <v>863.0267670190239</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W43" t="n">
-        <v>573.6095969820633</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X43" t="n">
-        <v>573.6095969820633</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y43" t="n">
-        <v>445.1136597037363</v>
+        <v>851.8821363738325</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2379.333770138675</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C44" t="n">
-        <v>2010.371253198264</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591514</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.31730199327</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036617</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155759</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I44" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139485</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>826.593515789654</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L44" t="n">
-        <v>1262.218779019701</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M44" t="n">
-        <v>2223.623655967289</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N44" t="n">
-        <v>3185.953071395929</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O44" t="n">
-        <v>4049.465812105079</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.198854229709</v>
+        <v>4376.290852915656</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252043</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
-        <v>4785.883460762039</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S44" t="n">
-        <v>4673.322552666528</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T44" t="n">
-        <v>4466.908689902184</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.370243053374</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709803</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439689</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178609</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
-        <v>2765.933610202797</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I45" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
         <v>184.4590143936093</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>448.2761120631361</v>
+        <v>807.0544736485201</v>
       </c>
       <c r="C46" t="n">
-        <v>448.2761120631361</v>
+        <v>807.0544736485201</v>
       </c>
       <c r="D46" t="n">
-        <v>298.1594726508004</v>
+        <v>656.9378342361844</v>
       </c>
       <c r="E46" t="n">
-        <v>298.1594726508004</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F46" t="n">
-        <v>263.4651948734966</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524079</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524079</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I46" t="n">
-        <v>95.71766921524079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
         <v>336.6421130738839</v>
@@ -7828,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492214</v>
+        <v>1571.63684545591</v>
       </c>
       <c r="U46" t="n">
-        <v>1402.015786034241</v>
+        <v>1282.531540997937</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.331297828354</v>
+        <v>1027.84705279205</v>
       </c>
       <c r="W46" t="n">
-        <v>857.9141277913932</v>
+        <v>1027.84705279205</v>
       </c>
       <c r="X46" t="n">
-        <v>629.9245768933758</v>
+        <v>1027.84705279205</v>
       </c>
       <c r="Y46" t="n">
-        <v>629.9245768933758</v>
+        <v>807.0544736485201</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>316.5995337026473</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>365.0157515019666</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990466</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>104.2845430427416</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>272.8710394522407</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>74.60209794880336</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9170,22 +9172,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>441.9676546243152</v>
+        <v>222.9377171826904</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9407,22 +9409,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>194.3363706804256</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.96743461201271</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880342</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>355.9152969323757</v>
+        <v>230.5859793988973</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>32.49982154847407</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.620730212331011</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>231.9993683640919</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534082</v>
+        <v>331.8725125435039</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>229.6526639644096</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10589,25 +10591,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>166.2829484911099</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,19 +10831,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>231.9993683640919</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>260.05279055341</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="P39" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>120.1689464528321</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>4.620730212332546</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880342</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>62.10078879605857</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>120.1689464528317</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.43176678885126</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956055</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>133.2060522794822</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.72259248007403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>94.84521726318957</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>60.09184015003251</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>147.2633056019937</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>83.52313471966553</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32.09758846070528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.545653865668726</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>28.07787078785191</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>117.3918848128958</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>180.1921373139776</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>48.44436357272087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>24.54799907332333</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>78.97843015563247</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>46.32991036976821</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956055</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>143.8547536421769</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>124.1211523585284</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>185.9421285506533</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>156.2654525359367</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.37367544655106</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.0737130234005</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>163.1720829152962</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172199</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172199</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172199</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657316.1826172199</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>753367.6739210165</v>
+        <v>753367.673921017</v>
       </c>
       <c r="F2" t="n">
-        <v>753367.6739210169</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="G2" t="n">
         <v>753367.6739210166</v>
@@ -26332,13 +26334,13 @@
         <v>753367.6739210167</v>
       </c>
       <c r="I2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210165</v>
       </c>
       <c r="J2" t="n">
-        <v>753367.6739210169</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="K2" t="n">
-        <v>753367.6739210169</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="L2" t="n">
         <v>753367.6739210166</v>
@@ -26347,10 +26349,10 @@
         <v>753367.6739210167</v>
       </c>
       <c r="N2" t="n">
+        <v>753367.6739210167</v>
+      </c>
+      <c r="O2" t="n">
         <v>753367.6739210164</v>
-      </c>
-      <c r="O2" t="n">
-        <v>753367.6739210167</v>
       </c>
       <c r="P2" t="n">
         <v>753367.6739210167</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.850638409455616e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581165</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581165</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="I4" t="n">
+        <v>23693.12563581162</v>
+      </c>
+      <c r="J4" t="n">
         <v>23693.12563581161</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23693.12563581166</v>
       </c>
       <c r="K4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="M4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581158</v>
+        <v>23693.12563581165</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581156</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581161</v>
       </c>
     </row>
     <row r="5">
@@ -26503,13 +26505,13 @@
         <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931448</v>
+        <v>-85043.87229931459</v>
       </c>
       <c r="C6" t="n">
-        <v>504924.00691523</v>
+        <v>504924.0069152297</v>
       </c>
       <c r="D6" t="n">
         <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-74544.26185869251</v>
+        <v>-74544.26185869204</v>
       </c>
       <c r="F6" t="n">
-        <v>633706.8348931361</v>
+        <v>633706.8348931359</v>
       </c>
       <c r="G6" t="n">
         <v>633706.8348931358</v>
@@ -26540,13 +26542,13 @@
         <v>633706.8348931359</v>
       </c>
       <c r="I6" t="n">
-        <v>633706.8348931359</v>
+        <v>633706.8348931357</v>
       </c>
       <c r="J6" t="n">
-        <v>457283.615700543</v>
+        <v>457283.6157005429</v>
       </c>
       <c r="K6" t="n">
-        <v>633706.8348931361</v>
+        <v>633706.8348931358</v>
       </c>
       <c r="L6" t="n">
         <v>633706.8348931358</v>
@@ -26555,10 +26557,10 @@
         <v>503576.5949237265</v>
       </c>
       <c r="N6" t="n">
+        <v>633706.8348931359</v>
+      </c>
+      <c r="O6" t="n">
         <v>633706.8348931356</v>
-      </c>
-      <c r="O6" t="n">
-        <v>633706.8348931359</v>
       </c>
       <c r="P6" t="n">
         <v>633706.8348931359</v>
@@ -26719,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26823,13 +26825,13 @@
         <v>1196.470865190509</v>
       </c>
       <c r="N4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="O4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="P4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>68.0801953367704</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>323.129910258111</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.91729167237102</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.6525512039747</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>265.5702402139117</v>
       </c>
       <c r="E5" t="n">
-        <v>27.98162540605443</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>57.62381231819433</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>181.1689312905036</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>315.0134541315873</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.49650991024896</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,10 +27903,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>77.0298148455247</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.2761866577563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.06329801181952e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31062,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>641.2446803365943</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207958</v>
+        <v>886.61825532993</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254038</v>
@@ -35428,7 +35430,7 @@
         <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
         <v>53.4176149856001</v>
@@ -35489,7 +35491,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K12" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
@@ -35507,7 +35509,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N14" t="n">
-        <v>638.9875332051416</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O14" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289183</v>
+        <v>657.449869881159</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
         <v>53.4176149856001</v>
@@ -35726,10 +35728,10 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K15" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>433.5460773752692</v>
       </c>
       <c r="M15" t="n">
         <v>438.4230857901371</v>
@@ -35890,22 +35892,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>963.5701584522785</v>
+        <v>744.5402210106538</v>
       </c>
       <c r="N17" t="n">
         <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K18" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -35978,7 +35980,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
@@ -36127,22 +36129,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>685.7712810430841</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>247.1107800891176</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197696</v>
+        <v>306.7515102197707</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
         <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>795.9408153465644</v>
+        <v>670.611497813086</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207958</v>
@@ -36373,13 +36375,13 @@
         <v>491.4349103626585</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R23" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>391.44380097494</v>
       </c>
       <c r="M24" t="n">
         <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
         <v>402.556638938372</v>
@@ -36458,7 +36460,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>187.0366104934973</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279633</v>
+        <v>753.6018721920552</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
         <v>53.4176149856001</v>
@@ -36674,7 +36676,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K27" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
@@ -36689,7 +36691,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160666</v>
+        <v>823.3074229061624</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1433454771049</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -37069,25 +37071,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L32" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289183</v>
+        <v>614.2314943933278</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
         <v>53.4176149856001</v>
@@ -37309,25 +37311,25 @@
         <v>324.645146633947</v>
       </c>
       <c r="L35" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>687.8854523190732</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O35" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,19 +37551,19 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207958</v>
+        <v>753.6018721920552</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O38" t="n">
-        <v>751.4877009160684</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
         <v>53.4176149856001</v>
@@ -37634,10 +37636,10 @@
         <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.556638938372</v>
+        <v>477.1587368871756</v>
       </c>
       <c r="P39" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
         <v>152.4976168106822</v>
@@ -37789,13 +37791,13 @@
         <v>521.6025038279633</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>654.8719366152321</v>
       </c>
       <c r="O41" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
-        <v>389.1995606412508</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
         <v>240.1433454771049</v>
@@ -37859,7 +37861,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197696</v>
+        <v>306.7515102197707</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>386.7459354300056</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771049</v>
+        <v>360.3122919299366</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3800316.937312062</v>
+        <v>3794472.802306934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256418</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7752623.105871747</v>
+        <v>7752623.105871748</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>148.3681250208874</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.05710418506243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>89.1128014067713</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>313.4020972507757</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.99166070001803</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.72038753189328</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>262.8275468865156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.1157241044942</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0021958577179</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>191.3690341502039</v>
+        <v>135.2009709794783</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>139.2596927345973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H20" t="n">
         <v>295.6178616169272</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6911166937279</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>162.4621744295023</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>119.740140031905</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.34790790337662</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T29" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.0366542787715</v>
+        <v>67.57137291817983</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8535500263048</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.760719376035417</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040302</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.435299014555</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803237</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.9163283579105</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.64252480144152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.804597865736486</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>101.1243628899129</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>95.49352330187519</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
         <v>97.68290229956055</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>56.56590097035596</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358873</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2316.076120912494</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.314335550585</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1731.251448207015</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1378.482792936901</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1005.017034675821</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.8777027000092</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005472</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005472</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835433</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>550.6130699431317</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859355</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835433</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598705</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.336405062904</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064341</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064341</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.336405062904</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233622</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353781</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>333.3487564742135</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>319.4253524128044</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960884</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.50539369077</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.50539369077</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>591.6484548079552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>591.6484548079552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>591.6484548079552</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>591.6484548079552</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>591.6484548079552</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>591.6484548079552</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644251</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5050,19 +5050,19 @@
         <v>1200.738998111603</v>
       </c>
       <c r="M11" t="n">
-        <v>2078.491070888233</v>
+        <v>2071.843273574332</v>
       </c>
       <c r="N11" t="n">
-        <v>3040.820486316874</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O11" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P11" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5074,19 +5074,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>856.6829100224757</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C13" t="n">
-        <v>687.7467270945688</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D13" t="n">
-        <v>537.630087682233</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E13" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F13" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
         <v>95.71766921524075</v>
@@ -5229,22 +5229,22 @@
         <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1628.774119163341</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U13" t="n">
-        <v>1628.774119163341</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V13" t="n">
-        <v>1374.089630957454</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W13" t="n">
-        <v>1084.672460920493</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X13" t="n">
-        <v>856.6829100224757</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.6829100224757</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J14" t="n">
         <v>443.7150397139484</v>
@@ -5284,22 +5284,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M14" t="n">
-        <v>2451.514037751685</v>
+        <v>2136.902529248583</v>
       </c>
       <c r="N14" t="n">
-        <v>2980.869998012462</v>
+        <v>3099.231944677224</v>
       </c>
       <c r="O14" t="n">
-        <v>3844.382738721612</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150652</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926292</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5308,22 +5308,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V14" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y14" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418658</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433823</v>
+        <v>769.641472174067</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C16" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D16" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E16" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F16" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J16" t="n">
         <v>137.7436613720288</v>
@@ -5442,7 +5442,7 @@
         <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M16" t="n">
         <v>983.9813277239498</v>
@@ -5469,19 +5469,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1213.514504985708</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>958.8300167798214</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>958.8300167798214</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>730.8404658818041</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.047886738274</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.816728742196</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N17" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O17" t="n">
         <v>3520.693250262004</v>
@@ -5548,7 +5548,7 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
@@ -5612,7 +5612,7 @@
         <v>2062.146616470409</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.6835851378764</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>393.7474022099696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>243.6307627976338</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
         <v>95.71766921524075</v>
@@ -5697,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1406.816559682884</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>1152.132071476997</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>1011.465715179424</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>783.4761642814066</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.6835851378764</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5761,16 +5761,16 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>1963.204430285879</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>2925.53384571452</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
-        <v>3789.046586423669</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4488.360349638067</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C21" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D21" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I21" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>2382.843886476065</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K21" t="n">
-        <v>2686.527881593638</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L21" t="n">
-        <v>3041.882421225839</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.921276158075</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N21" t="n">
-        <v>3935.856492973193</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O21" t="n">
-        <v>4334.387565522181</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P21" t="n">
-        <v>4634.910820119462</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q21" t="n">
-        <v>4785.883460762037</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R21" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S21" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T21" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U21" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V21" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W21" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X21" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y21" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3531.946190855493</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>3531.946190855493</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>3381.829551443157</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>3381.829551443157</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>3234.939603945247</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4501.578929952707</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T22" t="n">
-        <v>4501.578929952707</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U22" t="n">
-        <v>4296.840428241871</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V22" t="n">
-        <v>4042.155940035983</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.738769999023</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X22" t="n">
-        <v>3752.738769999023</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y22" t="n">
-        <v>3531.946190855493</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>765.113734881556</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1429.019117716511</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2390.423994664099</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3352.75341009274</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
-        <v>3839.273971351772</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C24" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D24" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F24" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H24" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I24" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>2612.671804624322</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>3000.201167589512</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>3434.240022521748</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
-        <v>3894.175239336866</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
-        <v>4292.706311885854</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P24" t="n">
-        <v>4593.229566483135</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q24" t="n">
-        <v>4744.202207125711</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R24" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S24" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T24" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U24" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V24" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W24" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X24" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y24" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C25" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1657.135604807635</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T25" t="n">
-        <v>1657.135604807635</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U25" t="n">
-        <v>1657.135604807635</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V25" t="n">
-        <v>1402.451116601748</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W25" t="n">
-        <v>1402.451116601748</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>1174.461565703731</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>953.668986560201</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6235,16 +6235,16 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2192.88380496633</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>2722.239765227107</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
         <v>4733.000021926293</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3599.733795084843</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="C28" t="n">
-        <v>3430.797612156936</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="D28" t="n">
-        <v>3430.797612156936</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="E28" t="n">
-        <v>3282.884518574543</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="F28" t="n">
-        <v>3282.884518574543</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="G28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4775.431028536404</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>4553.473469055948</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>4553.473469055948</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>4298.788980850061</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W28" t="n">
-        <v>4009.371810813101</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X28" t="n">
-        <v>3781.382259915083</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y28" t="n">
-        <v>3781.382259915083</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,22 +6463,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K29" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L29" t="n">
-        <v>1935.127558962002</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M29" t="n">
-        <v>2451.514037751685</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N29" t="n">
-        <v>2980.869998012462</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O29" t="n">
-        <v>3795.944346689562</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P29" t="n">
         <v>4495.258109903959</v>
@@ -6542,28 +6542,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629246</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111811</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433823</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075618</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439725</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q30" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R30" t="n">
         <v>2587.498588679581</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.8740171640912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>656.9378342361844</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9378342361844</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T31" t="n">
-        <v>1720.613957833929</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U31" t="n">
-        <v>1431.508653375956</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V31" t="n">
-        <v>1431.508653375956</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.508653375956</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.519102477939</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y31" t="n">
-        <v>1007.522481994331</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6703,22 +6703,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>918.6120443066561</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2284.108388731333</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>2813.464348992109</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O32" t="n">
-        <v>3676.977089701259</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6779,7 +6779,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
         <v>488.1430095111811</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.3619151216504</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>540.3619151216504</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>390.2452757093147</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>863.0267670190239</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>863.0267670190239</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>863.0267670190239</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>642.2341878754937</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M35" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,28 +7016,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111811</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433823</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075618</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439725</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q36" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R36" t="n">
         <v>2587.498588679581</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3513.418439729516</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>3513.418439729516</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>3508.609632278975</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>3360.696538696582</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T37" t="n">
-        <v>4501.578929952707</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U37" t="n">
-        <v>4212.473625494734</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>4212.473625494734</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>3923.056455457773</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>3695.066904559756</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>3695.066904559756</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993266</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036592</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
@@ -7180,19 +7180,19 @@
         <v>597.708085861203</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M38" t="n">
-        <v>2192.88380496633</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.239765227107</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
         <v>4733.000021926293</v>
@@ -7201,25 +7201,25 @@
         <v>4785.883460762037</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418658</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740671</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439725</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q39" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R39" t="n">
         <v>2587.498588679581</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.6373497078799</v>
+        <v>1117.399389645923</v>
       </c>
       <c r="C40" t="n">
-        <v>540.6373497078799</v>
+        <v>948.4632067180164</v>
       </c>
       <c r="D40" t="n">
-        <v>390.5207102955442</v>
+        <v>798.3465673056807</v>
       </c>
       <c r="E40" t="n">
-        <v>242.6076167131511</v>
+        <v>650.4334737232875</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524075</v>
+        <v>503.5435262253771</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7365,19 +7365,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.711255224911</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190239</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820633</v>
+        <v>1117.399389645923</v>
       </c>
       <c r="X40" t="n">
-        <v>573.6095969820633</v>
+        <v>1117.399389645923</v>
       </c>
       <c r="Y40" t="n">
-        <v>540.6373497078799</v>
+        <v>1117.399389645923</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7414,19 +7414,19 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>918.6120443066561</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L41" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M41" t="n">
-        <v>2284.108388731333</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
-        <v>2932.431605980412</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>3795.944346689562</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P41" t="n">
         <v>4495.258109903959</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C42" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D42" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F42" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G42" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I42" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>2382.843886476065</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K42" t="n">
-        <v>2686.527881593638</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L42" t="n">
-        <v>3041.882421225839</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M42" t="n">
-        <v>3475.921276158075</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N42" t="n">
-        <v>3935.856492973193</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O42" t="n">
-        <v>4334.387565522181</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P42" t="n">
-        <v>4634.910820119462</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q42" t="n">
-        <v>4785.883460762037</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R42" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S42" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T42" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U42" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V42" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W42" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X42" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y42" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>670.2336715435928</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>501.2974886156859</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>351.1808492033501</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>351.1808492033501</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>204.2909017054398</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U43" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V43" t="n">
-        <v>1369.288857308811</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>1079.87168727185</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>851.8821363738325</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>851.8821363738325</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
@@ -7651,22 +7651,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066561</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L44" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2284.108388731333</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>2813.464348992109</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O44" t="n">
-        <v>3676.977089701259</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4376.290852915656</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
         <v>4733.000021926293</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111811</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433823</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075618</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439725</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q45" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.0544736485201</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="C46" t="n">
-        <v>807.0544736485201</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9378342361844</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="E46" t="n">
-        <v>509.0247406537912</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="F46" t="n">
-        <v>362.1347931558809</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G46" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
         <v>194.3872674976251</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.63684545591</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1282.531540997937</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V46" t="n">
-        <v>1027.84705279205</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W46" t="n">
-        <v>1027.84705279205</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X46" t="n">
-        <v>1027.84705279205</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.0544736485201</v>
+        <v>437.4598847546345</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>365.0157515019666</v>
+        <v>358.3008047202478</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>3.419393410990466</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>99.87181202206409</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>272.8710394522407</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>74.60209794880336</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R15" t="n">
         <v>3.419393410990466</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>222.9377171826904</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R18" t="n">
         <v>3.419393410990466</v>
@@ -9409,19 +9409,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.96743461201271</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880456</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>230.5859793988973</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>32.49982154847407</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>231.9993683640919</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>331.8725125435039</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>4.62073021233067</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880339</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P32" t="n">
-        <v>229.6526639644096</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>166.2829484911099</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M38" t="n">
-        <v>231.9993683640919</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>120.1689464528321</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880456</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.1689464528317</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990466</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>20.43176678885126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>94.84521726318957</v>
+        <v>151.0132804339151</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>147.2633056019937</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>83.52313471966553</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>28.07787078785191</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>46.32991036976821</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956055</v>
@@ -24651,13 +24651,13 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>180.1921373139776</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.54799907332333</v>
+        <v>151.013280433915</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.97843015563247</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956055</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>143.8547536421769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>5.153722043762713</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.9421285506533</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>156.2654525359367</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>151.0132804339151</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>49.92752472105606</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>163.1720829152962</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657316.1826172199</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657316.1826172199</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657316.1826172199</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>753367.673921017</v>
       </c>
       <c r="F2" t="n">
+        <v>753367.6739210165</v>
+      </c>
+      <c r="G2" t="n">
+        <v>753367.6739210169</v>
+      </c>
+      <c r="H2" t="n">
+        <v>753367.6739210166</v>
+      </c>
+      <c r="I2" t="n">
+        <v>753367.6739210166</v>
+      </c>
+      <c r="J2" t="n">
         <v>753367.6739210167</v>
       </c>
-      <c r="G2" t="n">
-        <v>753367.6739210166</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>753367.6739210167</v>
-      </c>
-      <c r="I2" t="n">
-        <v>753367.6739210165</v>
-      </c>
-      <c r="J2" t="n">
-        <v>753367.6739210166</v>
-      </c>
-      <c r="K2" t="n">
-        <v>753367.6739210166</v>
       </c>
       <c r="L2" t="n">
         <v>753367.6739210166</v>
       </c>
       <c r="M2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="N2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="O2" t="n">
-        <v>753367.6739210164</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="P2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210166</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518282</v>
+        <v>708251.0967518283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>23693.12563581162</v>
+      </c>
+      <c r="F4" t="n">
         <v>23693.1256358116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23693.12563581161</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="I4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
+        <v>23693.12563581162</v>
+      </c>
+      <c r="K4" t="n">
         <v>23693.12563581161</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>23693.12563581162</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>23693.12563581161</v>
       </c>
-      <c r="M4" t="n">
-        <v>23693.12563581162</v>
-      </c>
       <c r="N4" t="n">
-        <v>23693.12563581165</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="P4" t="n">
         <v>23693.12563581161</v>
@@ -26481,7 +26481,7 @@
         <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931459</v>
+        <v>-85043.87229931474</v>
       </c>
       <c r="C6" t="n">
-        <v>504924.0069152297</v>
+        <v>504924.00691523</v>
       </c>
       <c r="D6" t="n">
-        <v>504924.0069152297</v>
+        <v>504924.00691523</v>
       </c>
       <c r="E6" t="n">
-        <v>-74544.26185869204</v>
+        <v>-75244.8410021146</v>
       </c>
       <c r="F6" t="n">
-        <v>633706.8348931359</v>
+        <v>633006.2557497133</v>
       </c>
       <c r="G6" t="n">
-        <v>633706.8348931358</v>
+        <v>633006.2557497136</v>
       </c>
       <c r="H6" t="n">
-        <v>633706.8348931359</v>
+        <v>633006.2557497134</v>
       </c>
       <c r="I6" t="n">
-        <v>633706.8348931357</v>
+        <v>633006.2557497134</v>
       </c>
       <c r="J6" t="n">
-        <v>457283.6157005429</v>
+        <v>456583.0365571206</v>
       </c>
       <c r="K6" t="n">
-        <v>633706.8348931358</v>
+        <v>633006.2557497135</v>
       </c>
       <c r="L6" t="n">
-        <v>633706.8348931358</v>
+        <v>633006.2557497134</v>
       </c>
       <c r="M6" t="n">
-        <v>503576.5949237265</v>
+        <v>502876.015780304</v>
       </c>
       <c r="N6" t="n">
-        <v>633706.8348931359</v>
+        <v>633006.2557497134</v>
       </c>
       <c r="O6" t="n">
-        <v>633706.8348931356</v>
+        <v>633006.2557497134</v>
       </c>
       <c r="P6" t="n">
-        <v>633706.8348931359</v>
+        <v>633006.2557497134</v>
       </c>
     </row>
   </sheetData>
@@ -26721,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>260.8147443664145</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>68.0801953367704</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.6525512039747</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>265.5702402139117</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>72.8358414052779</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>57.62381231819433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.0134541315873</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.09522587784153</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>77.0298148455247</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.821082683639</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>440.0255184141886</v>
       </c>
       <c r="M11" t="n">
-        <v>886.61825532993</v>
+        <v>879.9033085482112</v>
       </c>
       <c r="N11" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
@@ -35509,7 +35509,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279633</v>
+        <v>621.4743158500274</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P14" t="n">
-        <v>657.449869881159</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R14" t="n">
         <v>53.4176149856001</v>
@@ -35731,7 +35731,7 @@
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>433.5460773752692</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
         <v>438.4230857901371</v>
@@ -35746,7 +35746,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
         <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M17" t="n">
-        <v>744.5402210106538</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624001</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
         <v>706.3775386004008</v>
@@ -35980,10 +35980,10 @@
         <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N20" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.1107800891176</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
         <v>53.4176149856001</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197707</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36223,7 +36223,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
         <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>670.611497813086</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207958</v>
@@ -36372,16 +36372,16 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626585</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P23" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>391.44380097494</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
         <v>438.4230857901371</v>
@@ -36460,7 +36460,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
-        <v>753.6018721920552</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N26" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
         <v>53.4176149856001</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
         <v>648.7905592051118</v>
@@ -36843,13 +36843,13 @@
         <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>823.3074229061624</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004008</v>
+        <v>389.1995606412489</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1433454771049</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511958</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
@@ -36934,7 +36934,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P32" t="n">
-        <v>614.2314943933278</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
         <v>53.4176149856001</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
@@ -37314,22 +37314,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>687.8854523190732</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37408,7 +37408,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>324.645146633947</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M38" t="n">
-        <v>753.6018721920552</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R38" t="n">
         <v>53.4176149856001</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239243</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
@@ -37636,7 +37636,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
         <v>303.5588430275571</v>
@@ -37645,7 +37645,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>654.8719366152321</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
         <v>240.1433454771049</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197707</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -37882,7 +37882,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.3122919299366</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
         <v>53.4176149856001</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
@@ -38119,7 +38119,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3794472.802306934</v>
+        <v>3798023.362094326</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256416</v>
+        <v>6239134.533256419</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069179</v>
+        <v>840694.9721069175</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121.1156257058473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>152.9694256543806</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>262.8275468865156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.72166227029876</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>54.70191565295202</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>68.7247034517376</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>16.86931745267329</v>
       </c>
       <c r="U16" t="n">
-        <v>135.2009709794783</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212044</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.740140031905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>58.15431477962273</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2298,16 +2298,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>195.1493228900406</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>119.9635181175566</v>
       </c>
       <c r="G28" t="n">
-        <v>119.740140031905</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>119.7401400319054</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.57137291817983</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>44.28827234285678</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>160.9163283579105</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.4253606542987</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.85400557250791</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -3957,7 +3957,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>101.1243628899129</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>95.49352330187519</v>
+        <v>95.49352330187587</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4315,10 +4315,10 @@
         <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>689.1182491573331</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3346612638211</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C8" t="n">
-        <v>744.3346612638211</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D8" t="n">
-        <v>744.3346612638211</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3346612638211</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="F8" t="n">
-        <v>333.3487564742135</v>
+        <v>564.5549336295501</v>
       </c>
       <c r="G8" t="n">
-        <v>319.4253524128044</v>
+        <v>146.5911255277369</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>146.5911255277369</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.934501327943</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,25 +4889,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>765.113734881556</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.738998111603</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M11" t="n">
-        <v>2071.843273574332</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N11" t="n">
-        <v>3034.172689002972</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5105,13 +5105,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5199,16 +5199,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5217,34 +5217,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S13" t="n">
         <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190239</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W13" t="n">
-        <v>573.6095969820633</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X13" t="n">
-        <v>345.620046084046</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.8274669405158</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
         <v>1652.105554591511</v>
@@ -5269,37 +5269,37 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557056</v>
+        <v>1704.27021414407</v>
       </c>
       <c r="M14" t="n">
-        <v>2136.902529248583</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N14" t="n">
-        <v>3099.231944677224</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O14" t="n">
-        <v>3585.752505936256</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.066269150652</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926292</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5308,22 +5308,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="15">
@@ -5342,10 +5342,10 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G15" t="n">
         <v>197.3489189817663</v>
@@ -5354,16 +5354,16 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936092</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418657</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L15" t="n">
-        <v>769.641472174067</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M15" t="n">
         <v>1203.680327106303</v>
@@ -5372,10 +5372,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.146616470409</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P15" t="n">
-        <v>2362.66987106769</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524073</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150415</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5454,34 +5454,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1896.038935374012</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.249922329876</v>
+        <v>1606.933630916038</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.565434123989</v>
+        <v>1352.249142710151</v>
       </c>
       <c r="W16" t="n">
-        <v>726.1482640870279</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X16" t="n">
-        <v>498.1587131890105</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.3661340454804</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5515,16 +5515,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M17" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N17" t="n">
         <v>2657.180509552854</v>
@@ -5548,16 +5548,16 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5597,10 +5597,10 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418658</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740671</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M18" t="n">
         <v>1203.680327106303</v>
@@ -5609,10 +5609,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.66987106769</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5673,16 +5673,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5691,7 +5691,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
@@ -5700,10 +5700,10 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U19" t="n">
         <v>1270.249922329876</v>
@@ -5752,25 +5752,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2483.047833504645</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>3417.812665766992</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3904.333227026024</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,28 +5831,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>216.6338377265969</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>446.4617558748534</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L21" t="n">
-        <v>801.8162955070546</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M21" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.790367254409</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P21" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R21" t="n">
         <v>2587.498588679581</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.71766921524075</v>
+        <v>936.0627903946717</v>
       </c>
       <c r="C22" t="n">
-        <v>95.71766921524075</v>
+        <v>767.1266074667648</v>
       </c>
       <c r="D22" t="n">
-        <v>95.71766921524075</v>
+        <v>617.009968054429</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>469.0968744720359</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>322.2069269741255</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>154.4594013158698</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5910,16 +5910,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5928,34 +5928,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.551093895499</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>954.8666056896124</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4494356526518</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4598847546345</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.6673056111044</v>
+        <v>1117.711255224911</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K23" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872424</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.52506777933</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4376.290852915656</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926293</v>
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G25" t="n">
         <v>95.71766921524075</v>
@@ -6147,16 +6147,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6165,34 +6165,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S25" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W25" t="n">
-        <v>726.1482640870279</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="X25" t="n">
-        <v>498.1587131890105</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.3661340454805</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496196</v>
+        <v>1441.670768772048</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443784</v>
+        <v>2403.075645719636</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872424</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P26" t="n">
         <v>4495.258109903959</v>
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,22 +6305,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.6673056111044</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6673056111044</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="D28" t="n">
-        <v>216.6673056111044</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="E28" t="n">
-        <v>216.6673056111044</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="F28" t="n">
-        <v>216.6673056111044</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H28" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6402,7 +6402,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
         <v>1913.078649972671</v>
@@ -6411,25 +6411,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.656398353472</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.551093895499</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V28" t="n">
-        <v>954.8666056896124</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W28" t="n">
-        <v>665.4494356526518</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X28" t="n">
-        <v>437.4598847546345</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.6673056111044</v>
+        <v>629.9245768933765</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2284.108388731333</v>
+        <v>2483.047833504645</v>
       </c>
       <c r="N29" t="n">
-        <v>3246.437804159973</v>
+        <v>3012.403793765421</v>
       </c>
       <c r="O29" t="n">
-        <v>4109.950544869122</v>
+        <v>3520.693250262003</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.0070134764</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.94076625204</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6493,22 +6493,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T29" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6527,43 +6527,43 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I30" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J30" t="n">
-        <v>216.6338377265969</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>446.4617558748534</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>801.8162955070546</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1695.790367254409</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R30" t="n">
         <v>2587.498588679581</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111048</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111048</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111048</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H31" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I31" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J31" t="n">
         <v>137.7436613720288</v>
@@ -6630,7 +6630,7 @@
         <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.711255224911</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V31" t="n">
-        <v>863.0267670190239</v>
+        <v>954.8666056896128</v>
       </c>
       <c r="W31" t="n">
-        <v>573.6095969820633</v>
+        <v>665.4494356526523</v>
       </c>
       <c r="X31" t="n">
-        <v>345.620046084046</v>
+        <v>437.4598847546349</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>216.6673056111048</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,10 +6700,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
         <v>1446.817951496196</v>
@@ -6712,7 +6712,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C34" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D34" t="n">
-        <v>95.71766921524075</v>
+        <v>287.3432453422994</v>
       </c>
       <c r="E34" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6858,16 +6858,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6876,7 +6876,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
         <v>1913.078649972671</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.565434123989</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W34" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X34" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.3661340454805</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L35" t="n">
         <v>1446.817951496196</v>
@@ -6949,7 +6949,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O35" t="n">
         <v>4114.52506777933</v>
@@ -7001,13 +7001,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
@@ -7016,28 +7016,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>216.6338377265969</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K36" t="n">
-        <v>446.4617558748534</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L36" t="n">
-        <v>801.8162955070546</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M36" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N36" t="n">
-        <v>1695.790367254409</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P36" t="n">
-        <v>2394.844694400679</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q36" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R36" t="n">
         <v>2587.498588679581</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="F37" t="n">
         <v>95.71766921524075</v>
@@ -7095,16 +7095,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7113,7 +7113,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
         <v>1913.078649972671</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.565434123989</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W37" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X37" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.3661340454805</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L38" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O38" t="n">
         <v>4114.52506777933</v>
@@ -7238,13 +7238,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
@@ -7253,28 +7253,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>216.6338377265969</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K39" t="n">
-        <v>446.4617558748534</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L39" t="n">
-        <v>801.8162955070546</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M39" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N39" t="n">
-        <v>1695.790367254409</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P39" t="n">
-        <v>2394.844694400679</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q39" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R39" t="n">
         <v>2587.498588679581</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1117.399389645923</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="C40" t="n">
-        <v>948.4632067180164</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D40" t="n">
-        <v>798.3465673056807</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E40" t="n">
-        <v>650.4334737232875</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F40" t="n">
-        <v>503.5435262253771</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7350,34 +7350,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U40" t="n">
-        <v>1406.816559682884</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V40" t="n">
-        <v>1406.816559682884</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W40" t="n">
-        <v>1117.399389645923</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X40" t="n">
-        <v>1117.399389645923</v>
+        <v>943.0783936816498</v>
       </c>
       <c r="Y40" t="n">
-        <v>1117.399389645923</v>
+        <v>722.2858145381197</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,10 +7411,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L41" t="n">
         <v>1446.817951496196</v>
@@ -7423,7 +7423,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O41" t="n">
         <v>4114.52506777933</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,28 +7490,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>216.6338377265969</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>446.4617558748534</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L42" t="n">
-        <v>801.8162955070546</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M42" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N42" t="n">
-        <v>1695.790367254409</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P42" t="n">
-        <v>2394.844694400679</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q42" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R42" t="n">
         <v>2587.498588679581</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>418.6560694596936</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>418.6560694596936</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F43" t="n">
         <v>95.71766921524075</v>
@@ -7569,16 +7569,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7587,34 +7587,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S43" t="n">
         <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682884</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U43" t="n">
         <v>1117.711255224911</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>828.2940851879507</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>600.3045342899334</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>600.3045342899334</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>216.6338377265969</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K45" t="n">
-        <v>446.4617558748534</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L45" t="n">
-        <v>801.8162955070546</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M45" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N45" t="n">
-        <v>1695.790367254409</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P45" t="n">
-        <v>2394.844694400679</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q45" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="E46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="F46" t="n">
         <v>341.001780409306</v>
@@ -7806,16 +7806,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7824,7 +7824,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.613957833929</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353472</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.551093895499</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V46" t="n">
-        <v>954.8666056896124</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4494356526518</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
   </sheetData>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M11" t="n">
-        <v>358.3008047202478</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>184.4719773606195</v>
       </c>
       <c r="M14" t="n">
-        <v>99.87181202206409</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.6020979488037</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>90.70213529832199</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.6020979488037</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>409.5039111126979</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>32.49982154847238</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>120.1689464528316</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>88.31662751044888</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>21.98878306823201</v>
       </c>
       <c r="P29" t="n">
-        <v>4.62073021233067</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>32.49982154847238</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.49982154847238</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>32.49982154847238</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>32.49982154847238</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>32.49982154847238</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>151.0132804339145</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.8686664329788</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0132804339151</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.09184015003234</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>86.99405300294129</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>91.37367544655038</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>25.45752990537463</v>
       </c>
       <c r="G28" t="n">
-        <v>46.32991036976821</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102582</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>102.1456903037124</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102561</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
@@ -25332,7 +25332,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.153722043762713</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>90.28429473473844</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>120.7614674457044</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -25806,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>151.0132804339151</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>49.92752472105606</v>
+        <v>49.92752472105538</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657316.1826172197</v>
+        <v>657316.1826172196</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657316.1826172196</v>
+        <v>657316.1826172197</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>753367.673921017</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="F2" t="n">
         <v>753367.6739210165</v>
       </c>
       <c r="G2" t="n">
+        <v>753367.6739210166</v>
+      </c>
+      <c r="H2" t="n">
         <v>753367.6739210169</v>
       </c>
-      <c r="H2" t="n">
-        <v>753367.6739210166</v>
-      </c>
       <c r="I2" t="n">
-        <v>753367.6739210166</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="J2" t="n">
         <v>753367.6739210167</v>
       </c>
       <c r="K2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210169</v>
       </c>
       <c r="L2" t="n">
         <v>753367.6739210166</v>
       </c>
       <c r="M2" t="n">
-        <v>753367.6739210166</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="N2" t="n">
-        <v>753367.6739210166</v>
+        <v>753367.6739210165</v>
       </c>
       <c r="O2" t="n">
-        <v>753367.6739210166</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="P2" t="n">
         <v>753367.6739210166</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="F4" t="n">
         <v>23693.1256358116</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
         <v>95967.7133920692</v>
@@ -26496,7 +26496,7 @@
         <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="L5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931474</v>
+        <v>-85043.87229931494</v>
       </c>
       <c r="C6" t="n">
-        <v>504924.00691523</v>
+        <v>504924.0069152297</v>
       </c>
       <c r="D6" t="n">
-        <v>504924.00691523</v>
+        <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-75244.8410021146</v>
+        <v>-74614.31977303463</v>
       </c>
       <c r="F6" t="n">
-        <v>633006.2557497133</v>
+        <v>633636.7769787934</v>
       </c>
       <c r="G6" t="n">
-        <v>633006.2557497136</v>
+        <v>633636.7769787936</v>
       </c>
       <c r="H6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787938</v>
       </c>
       <c r="I6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787937</v>
       </c>
       <c r="J6" t="n">
-        <v>456583.0365571206</v>
+        <v>457213.5577862008</v>
       </c>
       <c r="K6" t="n">
-        <v>633006.2557497135</v>
+        <v>633636.7769787938</v>
       </c>
       <c r="L6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787936</v>
       </c>
       <c r="M6" t="n">
-        <v>502876.015780304</v>
+        <v>503506.5370093843</v>
       </c>
       <c r="N6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787934</v>
       </c>
       <c r="O6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787937</v>
       </c>
       <c r="P6" t="n">
-        <v>633006.2557497134</v>
+        <v>633636.7769787936</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731071</v>
+        <v>687.4987572731072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>260.8147443664145</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>260.8147443664144</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.04847948014722</v>
+        <v>51.04847948014699</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>61.09522587784153</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.20965397456249</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>231.821082683639</v>
+        <v>231.8210826836387</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H12" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L12" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q12" t="n">
         <v>292.4793908967038</v>
@@ -31870,7 +31870,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31913,43 +31913,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O13" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S13" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H15" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L15" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q15" t="n">
         <v>292.4793908967038</v>
@@ -32107,7 +32107,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32150,43 +32150,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O16" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S16" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H18" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L18" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q18" t="n">
         <v>292.4793908967038</v>
@@ -32344,7 +32344,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32387,43 +32387,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O19" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S19" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H21" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L21" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q21" t="n">
         <v>292.4793908967038</v>
@@ -32581,7 +32581,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32624,43 +32624,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O22" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S22" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H24" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L24" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q24" t="n">
         <v>292.4793908967038</v>
@@ -32818,7 +32818,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32861,43 +32861,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O25" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S25" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H27" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L27" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q27" t="n">
         <v>292.4793908967038</v>
@@ -33055,7 +33055,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33098,43 +33098,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O28" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S28" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H30" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L30" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q30" t="n">
         <v>292.4793908967038</v>
@@ -33292,7 +33292,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33335,43 +33335,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O31" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S31" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H33" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L33" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q33" t="n">
         <v>292.4793908967038</v>
@@ -33529,7 +33529,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33572,43 +33572,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O34" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S34" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H36" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L36" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q36" t="n">
         <v>292.4793908967038</v>
@@ -33766,7 +33766,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33809,43 +33809,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O37" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S37" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H39" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L39" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q39" t="n">
         <v>292.4793908967038</v>
@@ -34003,7 +34003,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34046,43 +34046,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O40" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S40" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H42" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L42" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q42" t="n">
         <v>292.4793908967038</v>
@@ -34240,7 +34240,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34283,43 +34283,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O43" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S43" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H45" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L45" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q45" t="n">
         <v>292.4793908967038</v>
@@ -34477,7 +34477,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34520,43 +34520,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O46" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S46" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M11" t="n">
-        <v>879.9033085482112</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626585</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K13" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M13" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P13" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532401</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141886</v>
+        <v>624.4974957748084</v>
       </c>
       <c r="M14" t="n">
-        <v>621.4743158500274</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626585</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R14" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239243</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.0997147594859</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K16" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M16" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P16" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532401</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141886</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N17" t="n">
-        <v>625.405125460722</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239243</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594859</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K19" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M19" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P19" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>944.2069012750982</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1375439508648</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N21" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O21" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K22" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M22" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P22" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K23" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O23" t="n">
-        <v>751.4877009160666</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771049</v>
+        <v>360.3122919299366</v>
       </c>
       <c r="R23" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N24" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O24" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K25" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M25" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P25" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>528.3421459246377</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O26" t="n">
-        <v>751.4877009160666</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N27" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K28" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M28" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P28" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279633</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254038</v>
+        <v>513.4236934308907</v>
       </c>
       <c r="P29" t="n">
-        <v>389.1995606412489</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1375439508648</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N30" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O30" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K31" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M31" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P31" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160666</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N33" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K34" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M34" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P34" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O35" t="n">
-        <v>751.4877009160666</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1375439508648</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R36" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K37" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M37" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P37" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L38" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>122.1375439508648</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R39" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K40" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M40" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P40" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O41" t="n">
-        <v>751.4877009160666</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1375439508648</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R42" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K43" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M43" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P43" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O44" t="n">
-        <v>751.4877009160666</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R44" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1375439508648</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N45" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R45" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K46" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M46" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P46" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
